--- a/biology/Botanique/Ancistrochilus/Ancistrochilus.xlsx
+++ b/biology/Botanique/Ancistrochilus/Ancistrochilus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ancistrochilus est un genre d'orchidées qui ne comporte que deux espèces et que l’on trouve en Afrique subtropicale, depuis la Guinée et la Sierra Leone jusqu’à l’Ouganda : A. rothschildianus et A. thomsonianus.
 Certains spécialistes considèrent le genre comme sympodial. Les espèces sont petites aux pseudobulbes en forme d’oignons, se développant sur un court rhizome. Chaque bulbe porte à l’apex deux feuilles. L’inflorescence, qui part de la base des pseudobulbes, porte de deux à cinq fleurs rose pâle à lilas clair avec un labelle magenta. Elles mesurent de 5 à 6 cm. La floraison peut intervenir en toute saison et dure à peu près un mois.
@@ -514,7 +526,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Du grec Ankistron (hameçon) et Cheilos (lèvre) pour la forme du labelle.
 </t>
@@ -545,7 +559,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Afrique tropicale de l'ouest et jusqu'en Tanzanie et Ouganda.
 </t>
@@ -576,7 +592,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ancistrochilus rothschildianus (ROLFE.1897)
 Ancistrochilus thomsonianus (ROLFE.1897)</t>
